--- a/experiment/quadratic/ex9.2.2/Experimentos_Generador/ex9.2.2(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.2/Experimentos_Generador/ex9.2.2(Quadratic)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,16 +57,16 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-x + y</t>
-  </si>
-  <si>
-    <t>0.019863716022031852</t>
+    <t>0.049999999999998934 - x + y</t>
+  </si>
+  <si>
+    <t>-0.049999999999998934</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.8020510098547599</t>
+    <t>0.4</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -78,43 +78,43 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-20 + x - 0.6356073777459497y</t>
-  </si>
-  <si>
-    <t>-16.08092882518972</t>
+    <t>34.04484536082474 + x - 3.367697594501718y</t>
+  </si>
+  <si>
+    <t>-54.04484536082474</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6464346595315031</t>
-  </si>
-  <si>
-    <t>-0.9174328263384326</t>
-  </si>
-  <si>
-    <t>-0.6350604539002446</t>
-  </si>
-  <si>
-    <t>-0.0008604743507615309y</t>
-  </si>
-  <si>
-    <t>-0.009301375044080495</t>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>-9.9</t>
+  </si>
+  <si>
+    <t>-9.8</t>
+  </si>
+  <si>
+    <t>-27.504 + 1.9100000000000001y</t>
+  </si>
+  <si>
+    <t>27.504</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.5539024619887478</t>
-  </si>
-  <si>
-    <t>-0.019692229829129215</t>
-  </si>
-  <si>
-    <t>-0.6554913295758878</t>
-  </si>
-  <si>
-    <t>-20 + 1.1102230246251565e-16y</t>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>-40.0 + 1.1102230246251565e-16y</t>
   </si>
   <si>
     <t>-20.0</t>
@@ -123,10 +123,7 @@
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.9093084279442455</t>
-  </si>
-  <si>
-    <t>0.6444923831015601</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>0</t>
@@ -138,25 +135,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>10.789726408132928</t>
-  </si>
-  <si>
-    <t>10.80959012415496</t>
+    <t>14.45</t>
+  </si>
+  <si>
+    <t>14.4</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-9.224271368081114</t>
+    <t>-52.007266323024055</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-23.856527082669615</t>
-  </si>
-  <si>
-    <t>-10.997491481024293</t>
+    <t>-30.240000000000002</t>
+  </si>
+  <si>
+    <t>-77.66220618556702</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -658,13 +655,13 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -682,18 +679,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -711,12 +708,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -734,17 +731,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -762,12 +759,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9991395256492385</v>
+        <v>2.91</v>
       </c>
     </row>
   </sheetData>
